--- a/NouvellesAdressesAPI.xlsx
+++ b/NouvellesAdressesAPI.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gustavobertoldi/Projects/CortevaApp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8BADC4F-4AE9-2642-A392-123096E92EBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B9A454-B8B5-2B4E-98B6-1EA292DF8F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{54FAB11A-8D98-1647-931E-C44575CDB9D0}"/>
+    <workbookView xWindow="1080" yWindow="1820" windowWidth="28040" windowHeight="17440" xr2:uid="{54FAB11A-8D98-1647-931E-C44575CDB9D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Ancien</t>
   </si>
@@ -52,6 +52,18 @@
   </si>
   <si>
     <t>Route::get('users/{username}', FormController::class.'@get');</t>
+  </si>
+  <si>
+    <t>Route::get('machines/{productionlineID}', FormController::class.'@getMachines');</t>
+  </si>
+  <si>
+    <t>Route::get('speedLosses/{PO}/{productionLine}', FormController::class.'@get_speedLosses');</t>
+  </si>
+  <si>
+    <t>Route::get('pos/{shift}/{site}', FormController::class.'@getPOsFromShift');</t>
+  </si>
+  <si>
+    <t>Route::get('events/{PO}/{productionLine}', FormController::class.'@getEvents');</t>
   </si>
 </sst>
 </file>
@@ -426,16 +438,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD05C86A-2F67-E548-8C08-7F64B2A36E8D}">
-  <dimension ref="A2:B7"/>
+  <dimension ref="A2:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="54.6640625" customWidth="1"/>
-    <col min="2" max="2" width="38.83203125" customWidth="1"/>
+    <col min="1" max="1" width="83" customWidth="1"/>
+    <col min="2" max="2" width="47.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2" ht="24" x14ac:dyDescent="0.3">
@@ -472,6 +484,42 @@
         <v>localhost:5000/api/users/{username}</v>
       </c>
     </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="str">
+        <f>_xlfn.CONCAT($B$2,"machine/{producitonLineId}")</f>
+        <v>localhost:5000/api/machine/{producitonLineId}</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="str">
+        <f>_xlfn.CONCAT($B$2,"speedloss/{po}/{productionLine}")</f>
+        <v>localhost:5000/api/speedloss/{po}/{productionLine}</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="str">
+        <f>_xlfn.CONCAT($B$2,"pos/{shift}/{site}")</f>
+        <v>localhost:5000/api/pos/{shift}/{site}</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="str">
+        <f>_xlfn.CONCAT($B$2,"events/{po}/{productionline}")</f>
+        <v>localhost:5000/api/events/{po}/{productionline}</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NouvellesAdressesAPI.xlsx
+++ b/NouvellesAdressesAPI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gustavobertoldi/Projects/CortevaApp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B9A454-B8B5-2B4E-98B6-1EA292DF8F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{863EC56D-3DA4-7F4A-B31F-43F1C2E86849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="1820" windowWidth="28040" windowHeight="17440" xr2:uid="{54FAB11A-8D98-1647-931E-C44575CDB9D0}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Ancien</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>Route::get('events/{PO}/{productionLine}', FormController::class.'@getEvents');</t>
+  </si>
+  <si>
+    <t>Route::get('unplannedDowntimeEvents/{productionLine}/{startYear}/{endYear}', FormController::class.'@getUnplannedDowntimeEvents');</t>
   </si>
 </sst>
 </file>
@@ -438,16 +441,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD05C86A-2F67-E548-8C08-7F64B2A36E8D}">
-  <dimension ref="A2:B11"/>
+  <dimension ref="A2:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="83" customWidth="1"/>
-    <col min="2" max="2" width="47.6640625" customWidth="1"/>
+    <col min="1" max="1" width="120.6640625" customWidth="1"/>
+    <col min="2" max="2" width="76" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2" ht="24" x14ac:dyDescent="0.3">
@@ -520,6 +523,15 @@
         <v>localhost:5000/api/events/{po}/{productionline}</v>
       </c>
     </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="str">
+        <f>_xlfn.CONCAT($B$2,"unplanneddowntimeevents/{productionline}/{startYear}/{endYear}")</f>
+        <v>localhost:5000/api/unplanneddowntimeevents/{productionline}/{startYear}/{endYear}</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NouvellesAdressesAPI.xlsx
+++ b/NouvellesAdressesAPI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gustavobertoldi/Projects/CortevaApp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{863EC56D-3DA4-7F4A-B31F-43F1C2E86849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5789A581-B76B-3442-A9A7-DB4D0D6AAAE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1820" windowWidth="28040" windowHeight="17440" xr2:uid="{54FAB11A-8D98-1647-931E-C44575CDB9D0}"/>
+    <workbookView xWindow="4900" yWindow="-19440" windowWidth="28040" windowHeight="17440" xr2:uid="{54FAB11A-8D98-1647-931E-C44575CDB9D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Ancien</t>
   </si>
@@ -67,6 +67,18 @@
   </si>
   <si>
     <t>Route::get('unplannedDowntimeEvents/{productionLine}/{startYear}/{endYear}', FormController::class.'@getUnplannedDowntimeEvents');</t>
+  </si>
+  <si>
+    <t>Route::get('summary/{productionName}/{downTimeType}', FormController::class.'@getDowntimeReasons');</t>
+  </si>
+  <si>
+    <t>Route::get('{productionName}/{downtimeType}/unplannedDowntime', FormController::class.'@get_unplannedDowntime_2');</t>
+  </si>
+  <si>
+    <t>Route::get('unplannedDowntime/unplannedDowntime/{machineName}', FormController::class.'@get_unplannedDowntime_Machine_Issue');</t>
+  </si>
+  <si>
+    <t>Route::get('worksiteID/{worksite}', FormController::class.'@getWorksiteID');</t>
   </si>
 </sst>
 </file>
@@ -441,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD05C86A-2F67-E548-8C08-7F64B2A36E8D}">
-  <dimension ref="A2:B12"/>
+  <dimension ref="A2:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -474,8 +486,8 @@
         <v>4</v>
       </c>
       <c r="B6" t="str">
-        <f>_xlfn.CONCAT($B$2,"worksite")</f>
-        <v>localhost:5000/api/worksite</v>
+        <f>_xlfn.CONCAT($B$2,"sites")</f>
+        <v>localhost:5000/api/sites</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -492,8 +504,8 @@
         <v>6</v>
       </c>
       <c r="B8" t="str">
-        <f>_xlfn.CONCAT($B$2,"machine/{producitonLineId}")</f>
-        <v>localhost:5000/api/machine/{producitonLineId}</v>
+        <f>_xlfn.CONCAT($B$2,"machines/{producitonLineId}")</f>
+        <v>localhost:5000/api/machines/{producitonLineId}</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -530,6 +542,42 @@
       <c r="B12" t="str">
         <f>_xlfn.CONCAT($B$2,"unplanneddowntimeevents/{productionline}/{startYear}/{endYear}")</f>
         <v>localhost:5000/api/unplanneddowntimeevents/{productionline}/{startYear}/{endYear}</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="str">
+        <f>_xlfn.CONCAT($B$2,"summary/{productionName}/{downtimeType}")</f>
+        <v>localhost:5000/api/summary/{productionName}/{downtimeType}</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="str">
+        <f>_xlfn.CONCAT($B$2,"{productionName}/{downtimeType}/unplannedDowntime")</f>
+        <v>localhost:5000/api/{productionName}/{downtimeType}/unplannedDowntime</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="str">
+        <f>_xlfn.CONCAT($B$2,"unplannedDowntime/unplannedDowntime/{machineName}")</f>
+        <v>localhost:5000/api/unplannedDowntime/unplannedDowntime/{machineName}</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="str">
+        <f>_xlfn.CONCAT($B$2,"worksiteid/{worksite}")</f>
+        <v>localhost:5000/api/worksiteid/{worksite}</v>
       </c>
     </row>
   </sheetData>

--- a/NouvellesAdressesAPI.xlsx
+++ b/NouvellesAdressesAPI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gustavobertoldi/Projects/CortevaApp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5789A581-B76B-3442-A9A7-DB4D0D6AAAE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E5680B-C50D-F648-8B54-F5897FE73695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4900" yWindow="-19440" windowWidth="28040" windowHeight="17440" xr2:uid="{54FAB11A-8D98-1647-931E-C44575CDB9D0}"/>
+    <workbookView xWindow="2340" yWindow="1280" windowWidth="28040" windowHeight="17440" xr2:uid="{54FAB11A-8D98-1647-931E-C44575CDB9D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Ancien</t>
   </si>
@@ -79,6 +79,21 @@
   </si>
   <si>
     <t>Route::get('worksiteID/{worksite}', FormController::class.'@getWorksiteID');</t>
+  </si>
+  <si>
+    <t>Route::get('allevents/{site}/{productionLine}/{beginningDate}/{endingDate}', FormController::class.'@getAllEventsPeriod');</t>
+  </si>
+  <si>
+    <t>Route::get('qualityLosses/{site}/{productionLine}/{beginningDate}/{endingDate}', FormController::class.'@getQualityLossesPeriod');</t>
+  </si>
+  <si>
+    <t>Route::get('assignation/{username}/{po}/{productionline}', FormController::class.'@isAssignationPossible');</t>
+  </si>
+  <si>
+    <t>Route::get('po/{po}', FormController::class.'@isPOPossible');</t>
+  </si>
+  <si>
+    <t>Route::get('netOP/{GMID}', FormController::class.'@getNetOP');</t>
   </si>
 </sst>
 </file>
@@ -453,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD05C86A-2F67-E548-8C08-7F64B2A36E8D}">
-  <dimension ref="A2:B16"/>
+  <dimension ref="A2:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -580,7 +595,55 @@
         <v>localhost:5000/api/worksiteid/{worksite}</v>
       </c>
     </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" t="str">
+        <f>_xlfn.CONCAT($B$2,"allevents/{site}/{productionLine}/{beginningDate}/{endingDate}")</f>
+        <v>localhost:5000/api/allevents/{site}/{productionLine}/{beginningDate}/{endingDate}</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="str">
+        <f>_xlfn.CONCAT($B$2,"qualityLosses/{site}/{productionLine}/{beginningDate}/{endingDate}")</f>
+        <v>localhost:5000/api/qualityLosses/{site}/{productionLine}/{beginningDate}/{endingDate}</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" t="str">
+        <f>_xlfn.CONCAT($B$2,"assignation/{username}/{po}/{productionline}")</f>
+        <v>localhost:5000/api/assignation/{username}/{po}/{productionline}</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" t="str">
+        <f>_xlfn.CONCAT($B$2,"po/{po}")</f>
+        <v>localhost:5000/api/po/{po}</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" t="str">
+        <f>_xlfn.CONCAT($B$2,"netOP/{GMID}")</f>
+        <v>localhost:5000/api/netOP/{GMID}</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="B17" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/NouvellesAdressesAPI.xlsx
+++ b/NouvellesAdressesAPI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gustavobertoldi/Projects/CortevaApp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E5680B-C50D-F648-8B54-F5897FE73695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98786607-D136-F248-A4C7-972962EBACA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="1280" windowWidth="28040" windowHeight="17440" xr2:uid="{54FAB11A-8D98-1647-931E-C44575CDB9D0}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Ancien</t>
   </si>
@@ -94,6 +94,12 @@
   </si>
   <si>
     <t>Route::get('netOP/{GMID}', FormController::class.'@getNetOP');</t>
+  </si>
+  <si>
+    <t>Route::get('getSpeedLosses/{site}/{productionLine}/{beginningDate}/{endingDate}', FormController::class.'@getSpeedLosses');</t>
+  </si>
+  <si>
+    <t>Route::get('performance/{PO}', FormController::class.'@getPerformanceForASite');</t>
   </si>
 </sst>
 </file>
@@ -468,7 +474,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD05C86A-2F67-E548-8C08-7F64B2A36E8D}">
-  <dimension ref="A2:B21"/>
+  <dimension ref="A2:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
@@ -528,8 +534,8 @@
         <v>7</v>
       </c>
       <c r="B9" t="str">
-        <f>_xlfn.CONCAT($B$2,"speedloss/{po}/{productionLine}")</f>
-        <v>localhost:5000/api/speedloss/{po}/{productionLine}</v>
+        <f>_xlfn.CONCAT($B$2,"speedlosses/{po}/{productionLine}")</f>
+        <v>localhost:5000/api/speedlosses/{po}/{productionLine}</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -638,6 +644,24 @@
       <c r="B21" t="str">
         <f>_xlfn.CONCAT($B$2,"netOP/{GMID}")</f>
         <v>localhost:5000/api/netOP/{GMID}</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="str">
+        <f>_xlfn.CONCAT($B$2,"performance/{PO}")</f>
+        <v>localhost:5000/api/performance/{PO}</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" t="str">
+        <f>_xlfn.CONCAT($B$2,"getSpeedLosses/{site}/{productionLine}/{startingDate}/{endingDate}")</f>
+        <v>localhost:5000/api/getSpeedLosses/{site}/{productionLine}/{startingDate}/{endingDate}</v>
       </c>
     </row>
   </sheetData>

--- a/NouvellesAdressesAPI.xlsx
+++ b/NouvellesAdressesAPI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gustavobertoldi/Projects/CortevaApp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98786607-D136-F248-A4C7-972962EBACA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C75CA5A8-9C52-D94E-93F9-1C974E657907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="1280" windowWidth="28040" windowHeight="17440" xr2:uid="{54FAB11A-8D98-1647-931E-C44575CDB9D0}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Ancien</t>
   </si>
@@ -100,6 +100,12 @@
   </si>
   <si>
     <t>Route::get('performance/{PO}', FormController::class.'@getPerformanceForASite');</t>
+  </si>
+  <si>
+    <t>Route::post('assignation', FormController::class.'@createAssignement');</t>
+  </si>
+  <si>
+    <t>Route::post('PO',FormController::class.'@createPO');</t>
   </si>
 </sst>
 </file>
@@ -474,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD05C86A-2F67-E548-8C08-7F64B2A36E8D}">
-  <dimension ref="A2:B23"/>
+  <dimension ref="A2:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -664,6 +670,24 @@
         <v>localhost:5000/api/getSpeedLosses/{site}/{productionLine}/{startingDate}/{endingDate}</v>
       </c>
     </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" t="str">
+        <f>_xlfn.CONCAT($B$2,"assignation")</f>
+        <v>localhost:5000/api/assignation</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="str">
+        <f>_xlfn.CONCAT($B$2,"PO")</f>
+        <v>localhost:5000/api/PO</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/NouvellesAdressesAPI.xlsx
+++ b/NouvellesAdressesAPI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gustavobertoldi/Projects/CortevaApp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C75CA5A8-9C52-D94E-93F9-1C974E657907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{946A8D07-1F77-4E49-A720-569E4CB02813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="1280" windowWidth="28040" windowHeight="17440" xr2:uid="{54FAB11A-8D98-1647-931E-C44575CDB9D0}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Ancien</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>Route::post('PO',FormController::class.'@createPO');</t>
+  </si>
+  <si>
+    <t>Route::post('storeRejection', FormController::class.'@storeRejection');</t>
   </si>
 </sst>
 </file>
@@ -480,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD05C86A-2F67-E548-8C08-7F64B2A36E8D}">
-  <dimension ref="A2:B25"/>
+  <dimension ref="A2:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -688,6 +691,15 @@
         <v>localhost:5000/api/PO</v>
       </c>
     </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="str">
+        <f>_xlfn.CONCAT($B$2,"storeRejection")</f>
+        <v>localhost:5000/api/storeRejection</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/NouvellesAdressesAPI.xlsx
+++ b/NouvellesAdressesAPI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gustavobertoldi/Projects/CortevaApp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{946A8D07-1F77-4E49-A720-569E4CB02813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19FE5F40-422F-5843-B0A4-5840A4F29C1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="1280" windowWidth="28040" windowHeight="17440" xr2:uid="{54FAB11A-8D98-1647-931E-C44575CDB9D0}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Ancien</t>
   </si>
@@ -109,6 +109,21 @@
   </si>
   <si>
     <t>Route::post('storeRejection', FormController::class.'@storeRejection');</t>
+  </si>
+  <si>
+    <t>Route::post('stopPO/{PO}/{availability}/{performance}/{quality}/{OLE}/{quantityProduced}/{totalDuration}', FormController::class.'@stopPO');</t>
+  </si>
+  <si>
+    <t>Route::post('unplannedEvent/changingFormat', FormController::class.'@saveUnplannedEvent_Changingformat');</t>
+  </si>
+  <si>
+    <t>Route::post('unplannedEvent/clientChanging', FormController::class.'@saveUnplannedEvent_Clientchanging');</t>
+  </si>
+  <si>
+    <t>Route::post('unplannedEvent/CIP', FormController::class.'@saveUnplannedEvent_CIP');</t>
+  </si>
+  <si>
+    <t>Route::post('unplannedEvent/unplannedDowntime', FormController::class.'@saveUnplannedEvent');</t>
   </si>
 </sst>
 </file>
@@ -483,16 +498,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD05C86A-2F67-E548-8C08-7F64B2A36E8D}">
-  <dimension ref="A2:B26"/>
+  <dimension ref="A2:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="111" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="120.6640625" customWidth="1"/>
-    <col min="2" max="2" width="76" customWidth="1"/>
+    <col min="2" max="2" width="93.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2" ht="24" x14ac:dyDescent="0.3">
@@ -698,6 +713,51 @@
       <c r="B26" t="str">
         <f>_xlfn.CONCAT($B$2,"storeRejection")</f>
         <v>localhost:5000/api/storeRejection</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="str">
+        <f>_xlfn.CONCAT($B$2,"stopPO/{PO}/{availability}/{performance}/{quality}/{OLE}/{quantityProduced}/{totalDuration}")</f>
+        <v>localhost:5000/api/stopPO/{PO}/{availability}/{performance}/{quality}/{OLE}/{quantityProduced}/{totalDuration}</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" t="str">
+        <f>_xlfn.CONCAT($B$2,"unplannedEvent/changingFormat")</f>
+        <v>localhost:5000/api/unplannedEvent/changingFormat</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" t="str">
+        <f>_xlfn.CONCAT($B$2,"unplannedEvent/clientChanging")</f>
+        <v>localhost:5000/api/unplannedEvent/clientChanging</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" t="str">
+        <f>_xlfn.CONCAT($B$2,"unplannedEvent/CIP")</f>
+        <v>localhost:5000/api/unplannedEvent/CIP</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" t="str">
+        <f>_xlfn.CONCAT($B$2,"unplannedEvent/unplannedDowntime")</f>
+        <v>localhost:5000/api/unplannedEvent/unplannedDowntime</v>
       </c>
     </row>
   </sheetData>

--- a/NouvellesAdressesAPI.xlsx
+++ b/NouvellesAdressesAPI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gustavobertoldi/Projects/CortevaApp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19FE5F40-422F-5843-B0A4-5840A4F29C1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{539F9A5B-0679-4E4B-9F50-092E2DAD2632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="1280" windowWidth="28040" windowHeight="17440" xr2:uid="{54FAB11A-8D98-1647-931E-C44575CDB9D0}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Ancien</t>
   </si>
@@ -124,6 +124,12 @@
   </si>
   <si>
     <t>Route::post('unplannedEvent/unplannedDowntime', FormController::class.'@saveUnplannedEvent');</t>
+  </si>
+  <si>
+    <t>Route::post('plannedEvent', FormController::class.'@savePlannedEvent');</t>
+  </si>
+  <si>
+    <t>Route::post('speedLoss', FormController::class.'@saveSpeedLoss');</t>
   </si>
 </sst>
 </file>
@@ -498,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD05C86A-2F67-E548-8C08-7F64B2A36E8D}">
-  <dimension ref="A2:B31"/>
+  <dimension ref="A2:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="111" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="111" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -760,6 +766,24 @@
         <v>localhost:5000/api/unplannedEvent/unplannedDowntime</v>
       </c>
     </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" t="str">
+        <f>_xlfn.CONCAT($B$2,"plannedEvent")</f>
+        <v>localhost:5000/api/plannedEvent</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" t="str">
+        <f>_xlfn.CONCAT($B$2,"speedLoss")</f>
+        <v>localhost:5000/api/speedLoss</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
